--- a/user-data/uganda-urban-rural-pop/uganda-urban-rural-pop.xlsx
+++ b/user-data/uganda-urban-rural-pop/uganda-urban-rural-pop.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t>id</t>
   </si>
@@ -712,9 +712,6 @@
   </si>
   <si>
     <t>Source: Ugandan Ministry</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1096,22 +1093,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
@@ -1127,11 +1124,6 @@
     <row r="13">
       <c r="A13" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-urban-rural-pop/uganda-urban-rural-pop.xlsx
+++ b/user-data/uganda-urban-rural-pop/uganda-urban-rural-pop.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>id</t>
   </si>
@@ -705,13 +705,16 @@
     <t>Name: uganda-urban-rural-pop</t>
   </si>
   <si>
-    <t>Description: Ugandan Urban and rural population (%)</t>
+    <t>Description: Urban And Rural Population (%)</t>
   </si>
   <si>
     <t>Units of measure: %</t>
   </si>
   <si>
-    <t>Source: Ugandan Ministry</t>
+    <t>Source: National population and Housing census 2014: Provisional Results - Uganda Bureau of Statistics</t>
+  </si>
+  <si>
+    <t>Source-link: http://www.ubos.org/onlinefiles/uploads/ubos/NPHC/NPHC%202014%20PROVISIONAL%20RESULTS%20REPORT.pdf</t>
   </si>
   <si>
     <t/>
@@ -723,7 +726,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1093,22 +1099,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11">
@@ -1124,6 +1130,16 @@
     <row r="13">
       <c r="A13" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-urban-rural-pop/uganda-urban-rural-pop.xlsx
+++ b/user-data/uganda-urban-rural-pop/uganda-urban-rural-pop.xlsx
@@ -705,13 +705,13 @@
     <t>Name: uganda-urban-rural-pop</t>
   </si>
   <si>
-    <t>Description: Urban And Rural Population (%)</t>
+    <t>Description: Urban and rural population (%)</t>
   </si>
   <si>
     <t>Units of measure: %</t>
   </si>
   <si>
-    <t>Source: National population and Housing census 2014: Provisional Results - Uganda Bureau of Statistics</t>
+    <t>Source: National population and Housing census 2014: provisional results â€“ Uganda Bureau of Statistics</t>
   </si>
   <si>
     <t>Source-link: http://www.ubos.org/onlinefiles/uploads/ubos/NPHC/NPHC%202014%20PROVISIONAL%20RESULTS%20REPORT.pdf</t>

--- a/user-data/uganda-urban-rural-pop/uganda-urban-rural-pop.xlsx
+++ b/user-data/uganda-urban-rural-pop/uganda-urban-rural-pop.xlsx
@@ -735,7 +735,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-urban-rural-pop/uganda-urban-rural-pop.xlsx
+++ b/user-data/uganda-urban-rural-pop/uganda-urban-rural-pop.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -33,337 +33,673 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">Name: uganda-urban-rural-pop</t>
@@ -733,22 +1069,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -756,7 +1092,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -764,42 +1100,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +1173,9 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="n">
         <v>2014</v>
       </c>
@@ -850,9 +1188,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3"/>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" t="n">
         <v>2014</v>
       </c>
@@ -865,9 +1205,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4"/>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" t="n">
         <v>2014</v>
       </c>
@@ -880,9 +1222,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5"/>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
@@ -895,9 +1239,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" t="n">
         <v>2014</v>
       </c>
@@ -910,9 +1256,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7"/>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" t="n">
         <v>2014</v>
       </c>
@@ -925,9 +1273,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8"/>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" t="n">
         <v>2014</v>
       </c>
@@ -940,9 +1290,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9"/>
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
@@ -955,9 +1307,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10"/>
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" t="n">
         <v>2014</v>
       </c>
@@ -970,9 +1324,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11"/>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" t="n">
         <v>2014</v>
       </c>
@@ -985,9 +1341,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12"/>
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" t="n">
         <v>2014</v>
       </c>
@@ -1000,9 +1358,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13"/>
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
@@ -1015,9 +1375,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14"/>
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" t="n">
         <v>2014</v>
       </c>
@@ -1030,9 +1392,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15"/>
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" t="n">
         <v>2014</v>
       </c>
@@ -1045,9 +1409,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16"/>
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" t="n">
         <v>2014</v>
       </c>
@@ -1060,9 +1426,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17"/>
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
@@ -1075,9 +1443,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18"/>
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
       <c r="C18" t="n">
         <v>2014</v>
       </c>
@@ -1090,9 +1460,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19"/>
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" t="n">
         <v>2014</v>
       </c>
@@ -1105,9 +1477,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20"/>
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" t="n">
         <v>2014</v>
       </c>
@@ -1120,9 +1494,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21"/>
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
@@ -1135,9 +1511,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22"/>
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" t="n">
         <v>2014</v>
       </c>
@@ -1150,9 +1528,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23"/>
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
       <c r="C23" t="n">
         <v>2014</v>
       </c>
@@ -1165,9 +1545,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24"/>
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
       <c r="C24" t="n">
         <v>2014</v>
       </c>
@@ -1180,9 +1562,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25"/>
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
@@ -1195,9 +1579,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26"/>
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
       <c r="C26" t="n">
         <v>2014</v>
       </c>
@@ -1210,9 +1596,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27"/>
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
       <c r="C27" t="n">
         <v>2014</v>
       </c>
@@ -1225,9 +1613,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28"/>
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
       <c r="C28" t="n">
         <v>2014</v>
       </c>
@@ -1240,9 +1630,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29"/>
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
@@ -1255,9 +1647,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30"/>
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
       <c r="C30" t="n">
         <v>2014</v>
       </c>
@@ -1270,9 +1664,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31"/>
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
       <c r="C31" t="n">
         <v>2014</v>
       </c>
@@ -1285,9 +1681,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32"/>
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
       <c r="C32" t="n">
         <v>2014</v>
       </c>
@@ -1300,9 +1698,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33"/>
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
@@ -1315,9 +1715,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34"/>
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
       <c r="C34" t="n">
         <v>2014</v>
       </c>
@@ -1330,9 +1732,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35"/>
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
       <c r="C35" t="n">
         <v>2014</v>
       </c>
@@ -1345,9 +1749,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36"/>
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
       <c r="C36" t="n">
         <v>2014</v>
       </c>
@@ -1360,9 +1766,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37"/>
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
@@ -1375,9 +1783,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38"/>
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
       <c r="C38" t="n">
         <v>2014</v>
       </c>
@@ -1390,9 +1800,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39"/>
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
       <c r="C39" t="n">
         <v>2014</v>
       </c>
@@ -1405,9 +1817,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40"/>
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
       <c r="C40" t="n">
         <v>2014</v>
       </c>
@@ -1420,9 +1834,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41"/>
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
@@ -1435,9 +1851,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42"/>
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
       <c r="C42" t="n">
         <v>2014</v>
       </c>
@@ -1450,9 +1868,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43"/>
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
       <c r="C43" t="n">
         <v>2014</v>
       </c>
@@ -1465,9 +1885,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44"/>
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
       <c r="C44" t="n">
         <v>2014</v>
       </c>
@@ -1480,9 +1902,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45"/>
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
@@ -1495,9 +1919,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46"/>
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
       <c r="C46" t="n">
         <v>2014</v>
       </c>
@@ -1510,9 +1936,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47"/>
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
       <c r="C47" t="n">
         <v>2014</v>
       </c>
@@ -1525,9 +1953,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48"/>
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
       <c r="C48" t="n">
         <v>2014</v>
       </c>
@@ -1540,9 +1970,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49"/>
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
@@ -1555,9 +1987,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50"/>
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
       <c r="C50" t="n">
         <v>2014</v>
       </c>
@@ -1570,9 +2004,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51"/>
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
       <c r="C51" t="n">
         <v>2014</v>
       </c>
@@ -1585,9 +2021,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52"/>
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
       <c r="C52" t="n">
         <v>2014</v>
       </c>
@@ -1600,9 +2038,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53"/>
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
@@ -1615,9 +2055,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54"/>
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
       <c r="C54" t="n">
         <v>2014</v>
       </c>
@@ -1630,9 +2072,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55"/>
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
       <c r="C55" t="n">
         <v>2014</v>
       </c>
@@ -1645,9 +2089,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56"/>
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
       <c r="C56" t="n">
         <v>2014</v>
       </c>
@@ -1660,9 +2106,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57"/>
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
@@ -1675,9 +2123,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58"/>
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
       <c r="C58" t="n">
         <v>2014</v>
       </c>
@@ -1690,9 +2140,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59"/>
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
       <c r="C59" t="n">
         <v>2014</v>
       </c>
@@ -1705,9 +2157,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60"/>
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
       <c r="C60" t="n">
         <v>2014</v>
       </c>
@@ -1720,9 +2174,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61"/>
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
@@ -1735,9 +2191,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62"/>
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
       <c r="C62" t="n">
         <v>2014</v>
       </c>
@@ -1750,9 +2208,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63"/>
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
       <c r="C63" t="n">
         <v>2014</v>
       </c>
@@ -1765,9 +2225,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64"/>
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
       <c r="C64" t="n">
         <v>2014</v>
       </c>
@@ -1780,9 +2242,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65"/>
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
@@ -1795,9 +2259,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66"/>
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
       <c r="C66" t="n">
         <v>2014</v>
       </c>
@@ -1810,9 +2276,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67"/>
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
       <c r="C67" t="n">
         <v>2014</v>
       </c>
@@ -1825,9 +2293,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68"/>
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
       <c r="C68" t="n">
         <v>2014</v>
       </c>
@@ -1840,9 +2310,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69"/>
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
@@ -1855,9 +2327,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70"/>
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
       <c r="C70" t="n">
         <v>2014</v>
       </c>
@@ -1870,9 +2344,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71"/>
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
       <c r="C71" t="n">
         <v>2014</v>
       </c>
@@ -1885,9 +2361,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72"/>
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
       <c r="C72" t="n">
         <v>2014</v>
       </c>
@@ -1900,9 +2378,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73"/>
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
@@ -1915,9 +2395,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74"/>
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
       <c r="C74" t="n">
         <v>2014</v>
       </c>
@@ -1930,9 +2412,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75"/>
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
       <c r="C75" t="n">
         <v>2014</v>
       </c>
@@ -1945,9 +2429,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76"/>
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
       <c r="C76" t="n">
         <v>2014</v>
       </c>
@@ -1960,9 +2446,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77"/>
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
@@ -1975,9 +2463,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78"/>
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
       <c r="C78" t="n">
         <v>2014</v>
       </c>
@@ -1990,9 +2480,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79"/>
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
       <c r="C79" t="n">
         <v>2014</v>
       </c>
@@ -2005,9 +2497,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80"/>
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
       <c r="C80" t="n">
         <v>2014</v>
       </c>
@@ -2020,9 +2514,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81"/>
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
@@ -2035,9 +2531,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82"/>
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
       <c r="C82" t="n">
         <v>2014</v>
       </c>
@@ -2050,9 +2548,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83"/>
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
       <c r="C83" t="n">
         <v>2014</v>
       </c>
@@ -2065,9 +2565,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84"/>
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
       <c r="C84" t="n">
         <v>2014</v>
       </c>
@@ -2080,9 +2582,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85"/>
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
@@ -2095,9 +2599,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86"/>
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
       <c r="C86" t="n">
         <v>2014</v>
       </c>
@@ -2110,9 +2616,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87"/>
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
       <c r="C87" t="n">
         <v>2014</v>
       </c>
@@ -2125,9 +2633,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88"/>
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
       <c r="C88" t="n">
         <v>2014</v>
       </c>
@@ -2140,9 +2650,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89"/>
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
@@ -2155,9 +2667,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90"/>
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
       <c r="C90" t="n">
         <v>2014</v>
       </c>
@@ -2170,9 +2684,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91"/>
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
       <c r="C91" t="n">
         <v>2014</v>
       </c>
@@ -2185,9 +2701,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92"/>
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
       <c r="C92" t="n">
         <v>2014</v>
       </c>
@@ -2200,9 +2718,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93"/>
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
@@ -2215,9 +2735,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94"/>
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
       <c r="C94" t="n">
         <v>2014</v>
       </c>
@@ -2230,9 +2752,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95"/>
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
       <c r="C95" t="n">
         <v>2014</v>
       </c>
@@ -2245,9 +2769,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96"/>
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
       <c r="C96" t="n">
         <v>2014</v>
       </c>
@@ -2260,9 +2786,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97"/>
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
@@ -2275,9 +2803,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98"/>
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
       <c r="C98" t="n">
         <v>2014</v>
       </c>
@@ -2290,9 +2820,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99"/>
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
       <c r="C99" t="n">
         <v>2014</v>
       </c>
@@ -2305,9 +2837,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100"/>
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
       <c r="C100" t="n">
         <v>2014</v>
       </c>
@@ -2320,9 +2854,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101"/>
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
@@ -2335,9 +2871,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102"/>
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
       <c r="C102" t="n">
         <v>2014</v>
       </c>
@@ -2350,9 +2888,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103"/>
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
       <c r="C103" t="n">
         <v>2014</v>
       </c>
@@ -2365,9 +2905,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104"/>
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
       <c r="C104" t="n">
         <v>2014</v>
       </c>
@@ -2380,9 +2922,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105"/>
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
@@ -2395,9 +2939,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106"/>
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
       <c r="C106" t="n">
         <v>2014</v>
       </c>
@@ -2410,9 +2956,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107"/>
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
       <c r="C107" t="n">
         <v>2014</v>
       </c>
@@ -2425,9 +2973,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108"/>
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
       <c r="C108" t="n">
         <v>2014</v>
       </c>
@@ -2440,9 +2990,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109"/>
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
@@ -2455,9 +3007,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110"/>
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
       <c r="C110" t="n">
         <v>2014</v>
       </c>
@@ -2470,9 +3024,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111"/>
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
       <c r="C111" t="n">
         <v>2014</v>
       </c>
@@ -2485,9 +3041,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112"/>
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
       <c r="C112" t="n">
         <v>2014</v>
       </c>
@@ -2500,9 +3058,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113"/>
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
       <c r="C113" t="n">
         <v>2014</v>
       </c>

--- a/user-data/uganda-urban-rural-pop/uganda-urban-rural-pop.xlsx
+++ b/user-data/uganda-urban-rural-pop/uganda-urban-rural-pop.xlsx
@@ -30,36 +30,498 @@
     <t xml:space="preserve">rural</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
     <t xml:space="preserve">Kampala</t>
   </si>
   <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -78,28 +540,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -108,598 +690,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">Name: uganda-urban-rural-pop</t>
@@ -1180,10 +1180,10 @@
         <v>2014</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -1197,10 +1197,10 @@
         <v>2014</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -1214,10 +1214,10 @@
         <v>2014</v>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -1231,10 +1231,10 @@
         <v>2014</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
@@ -1248,10 +1248,10 @@
         <v>2014</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1265,10 +1265,10 @@
         <v>2014</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1282,10 +1282,10 @@
         <v>2014</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -1299,10 +1299,10 @@
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1316,10 +1316,10 @@
         <v>2014</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -1333,10 +1333,10 @@
         <v>2014</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -1350,10 +1350,10 @@
         <v>2014</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -1367,10 +1367,10 @@
         <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -1384,10 +1384,10 @@
         <v>2014</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -1401,10 +1401,10 @@
         <v>2014</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -1418,10 +1418,10 @@
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -1435,10 +1435,10 @@
         <v>2014</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -1452,10 +1452,10 @@
         <v>2014</v>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -1469,10 +1469,10 @@
         <v>2014</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -1486,10 +1486,10 @@
         <v>2014</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -1503,10 +1503,10 @@
         <v>2014</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -1520,10 +1520,10 @@
         <v>2014</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -1537,10 +1537,10 @@
         <v>2014</v>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -1554,10 +1554,10 @@
         <v>2014</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -1571,10 +1571,10 @@
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -1588,10 +1588,10 @@
         <v>2014</v>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -1605,10 +1605,10 @@
         <v>2014</v>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E27" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -1622,10 +1622,10 @@
         <v>2014</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -1639,10 +1639,10 @@
         <v>2014</v>
       </c>
       <c r="D29" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
@@ -1656,10 +1656,10 @@
         <v>2014</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
@@ -1673,10 +1673,10 @@
         <v>2014</v>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E31" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
@@ -1690,10 +1690,10 @@
         <v>2014</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E32" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -1707,10 +1707,10 @@
         <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E33" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
@@ -1724,10 +1724,10 @@
         <v>2014</v>
       </c>
       <c r="D34" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
@@ -1741,10 +1741,10 @@
         <v>2014</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E35" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -1758,10 +1758,10 @@
         <v>2014</v>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E36" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
@@ -1775,10 +1775,10 @@
         <v>2014</v>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -1792,10 +1792,10 @@
         <v>2014</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
@@ -1809,10 +1809,10 @@
         <v>2014</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E39" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
@@ -1826,10 +1826,10 @@
         <v>2014</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41">
@@ -1843,10 +1843,10 @@
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
@@ -1860,10 +1860,10 @@
         <v>2014</v>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43">
@@ -1877,10 +1877,10 @@
         <v>2014</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E43" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
@@ -1894,10 +1894,10 @@
         <v>2014</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E44" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1911,10 +1911,10 @@
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -1928,10 +1928,10 @@
         <v>2014</v>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
@@ -1945,10 +1945,10 @@
         <v>2014</v>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E47" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
@@ -1962,10 +1962,10 @@
         <v>2014</v>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E48" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
@@ -1979,10 +1979,10 @@
         <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E49" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
@@ -1996,10 +1996,10 @@
         <v>2014</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E50" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
@@ -2030,10 +2030,10 @@
         <v>2014</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E52" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53">
@@ -2047,10 +2047,10 @@
         <v>2014</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E53" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -2081,10 +2081,10 @@
         <v>2014</v>
       </c>
       <c r="D55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56">
@@ -2098,10 +2098,10 @@
         <v>2014</v>
       </c>
       <c r="D56" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E56" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
@@ -2115,10 +2115,10 @@
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58">
@@ -2132,10 +2132,10 @@
         <v>2014</v>
       </c>
       <c r="D58" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E58" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
@@ -2149,10 +2149,10 @@
         <v>2014</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E59" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
@@ -2166,10 +2166,10 @@
         <v>2014</v>
       </c>
       <c r="D60" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E60" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
@@ -2183,10 +2183,10 @@
         <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62">
@@ -2200,10 +2200,10 @@
         <v>2014</v>
       </c>
       <c r="D62" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E62" t="n">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63">
@@ -2217,10 +2217,10 @@
         <v>2014</v>
       </c>
       <c r="D63" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64">
@@ -2234,10 +2234,10 @@
         <v>2014</v>
       </c>
       <c r="D64" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E64" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65">
@@ -2251,10 +2251,10 @@
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66">
@@ -2268,10 +2268,10 @@
         <v>2014</v>
       </c>
       <c r="D66" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
@@ -2285,10 +2285,10 @@
         <v>2014</v>
       </c>
       <c r="D67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E67" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68">
@@ -2302,10 +2302,10 @@
         <v>2014</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E68" t="n">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
@@ -2319,10 +2319,10 @@
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
@@ -2336,10 +2336,10 @@
         <v>2014</v>
       </c>
       <c r="D70" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E70" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
@@ -2353,10 +2353,10 @@
         <v>2014</v>
       </c>
       <c r="D71" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E71" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72">
@@ -2370,10 +2370,10 @@
         <v>2014</v>
       </c>
       <c r="D72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
@@ -2387,10 +2387,10 @@
         <v>2014</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74">
@@ -2404,10 +2404,10 @@
         <v>2014</v>
       </c>
       <c r="D74" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
@@ -2421,10 +2421,10 @@
         <v>2014</v>
       </c>
       <c r="D75" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E75" t="n">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76">
@@ -2438,10 +2438,10 @@
         <v>2014</v>
       </c>
       <c r="D76" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E76" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77">
@@ -2455,10 +2455,10 @@
         <v>2014</v>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78">
@@ -2472,10 +2472,10 @@
         <v>2014</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E78" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">
@@ -2489,10 +2489,10 @@
         <v>2014</v>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E79" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80">
@@ -2506,10 +2506,10 @@
         <v>2014</v>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81">
@@ -2523,10 +2523,10 @@
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E81" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
@@ -2540,10 +2540,10 @@
         <v>2014</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E82" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83">
@@ -2557,10 +2557,10 @@
         <v>2014</v>
       </c>
       <c r="D83" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84">
@@ -2574,10 +2574,10 @@
         <v>2014</v>
       </c>
       <c r="D84" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E84" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85">
@@ -2591,10 +2591,10 @@
         <v>2014</v>
       </c>
       <c r="D85" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86">
@@ -2608,10 +2608,10 @@
         <v>2014</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E86" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87">
@@ -2625,10 +2625,10 @@
         <v>2014</v>
       </c>
       <c r="D87" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88">
@@ -2642,10 +2642,10 @@
         <v>2014</v>
       </c>
       <c r="D88" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E88" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
@@ -2659,10 +2659,10 @@
         <v>2014</v>
       </c>
       <c r="D89" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E89" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90">
@@ -2676,10 +2676,10 @@
         <v>2014</v>
       </c>
       <c r="D90" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91">
@@ -2693,10 +2693,10 @@
         <v>2014</v>
       </c>
       <c r="D91" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92">
@@ -2710,10 +2710,10 @@
         <v>2014</v>
       </c>
       <c r="D92" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E92" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93">
@@ -2727,10 +2727,10 @@
         <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E93" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94">
@@ -2744,10 +2744,10 @@
         <v>2014</v>
       </c>
       <c r="D94" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E94" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95">
@@ -2761,10 +2761,10 @@
         <v>2014</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E95" t="n">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96">
@@ -2778,10 +2778,10 @@
         <v>2014</v>
       </c>
       <c r="D96" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97">
@@ -2795,10 +2795,10 @@
         <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E97" t="n">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98">
@@ -2812,10 +2812,10 @@
         <v>2014</v>
       </c>
       <c r="D98" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E98" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99">
@@ -2829,10 +2829,10 @@
         <v>2014</v>
       </c>
       <c r="D99" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100">
@@ -2846,10 +2846,10 @@
         <v>2014</v>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101">
@@ -2863,10 +2863,10 @@
         <v>2014</v>
       </c>
       <c r="D101" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E101" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102">
@@ -2880,10 +2880,10 @@
         <v>2014</v>
       </c>
       <c r="D102" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103">
@@ -2897,10 +2897,10 @@
         <v>2014</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E103" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104">
@@ -2914,10 +2914,10 @@
         <v>2014</v>
       </c>
       <c r="D104" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E104" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105">
@@ -2931,10 +2931,10 @@
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E105" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106">
@@ -2948,10 +2948,10 @@
         <v>2014</v>
       </c>
       <c r="D106" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E106" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107">
@@ -2965,10 +2965,10 @@
         <v>2014</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E107" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108">
@@ -2982,10 +2982,10 @@
         <v>2014</v>
       </c>
       <c r="D108" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E108" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109">
@@ -3016,10 +3016,10 @@
         <v>2014</v>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E110" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111">
@@ -3033,10 +3033,10 @@
         <v>2014</v>
       </c>
       <c r="D111" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E111" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112">
@@ -3050,10 +3050,10 @@
         <v>2014</v>
       </c>
       <c r="D112" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113">
@@ -3067,10 +3067,10 @@
         <v>2014</v>
       </c>
       <c r="D113" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E113" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-urban-rural-pop/uganda-urban-rural-pop.xlsx
+++ b/user-data/uganda-urban-rural-pop/uganda-urban-rural-pop.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -30,340 +30,676 @@
     <t xml:space="preserve">rural</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
+    <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
+    <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
+    <t xml:space="preserve">Zombo</t>
   </si>
   <si>
     <t xml:space="preserve">Name: uganda-urban-rural-pop</t>
@@ -733,22 +1069,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -756,7 +1092,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -764,42 +1100,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -837,742 +1173,842 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="n">
         <v>2014</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3"/>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" t="n">
         <v>2014</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4"/>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" t="n">
         <v>2014</v>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5"/>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" t="n">
         <v>2014</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D7" t="n">
         <v>10</v>
       </c>
-      <c r="B7"/>
-      <c r="C7" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D7" t="n">
-        <v>18</v>
-      </c>
       <c r="E7" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8"/>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" t="n">
         <v>2014</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9"/>
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10"/>
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" t="n">
         <v>2014</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11"/>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" t="n">
         <v>2014</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12"/>
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" t="n">
         <v>2014</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13"/>
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14"/>
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" t="n">
         <v>2014</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15"/>
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" t="n">
         <v>2014</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16"/>
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" t="n">
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17"/>
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18"/>
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
       <c r="C18" t="n">
         <v>2014</v>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19"/>
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" t="n">
         <v>2014</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20"/>
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" t="n">
         <v>2014</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21"/>
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22"/>
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" t="n">
         <v>2014</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23"/>
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
       <c r="C23" t="n">
         <v>2014</v>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24"/>
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
       <c r="C24" t="n">
         <v>2014</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25"/>
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26"/>
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
       <c r="C26" t="n">
         <v>2014</v>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27"/>
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
       <c r="C27" t="n">
         <v>2014</v>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E27" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28"/>
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
       <c r="C28" t="n">
         <v>2014</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29"/>
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
       <c r="D29" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30"/>
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
       <c r="C30" t="n">
         <v>2014</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D31" t="n">
         <v>34</v>
       </c>
-      <c r="B31"/>
-      <c r="C31" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D31" t="n">
-        <v>12</v>
-      </c>
       <c r="E31" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32"/>
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
       <c r="C32" t="n">
         <v>2014</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E32" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33"/>
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E33" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34"/>
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
       <c r="C34" t="n">
         <v>2014</v>
       </c>
       <c r="D34" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35"/>
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
       <c r="C35" t="n">
         <v>2014</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E35" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36"/>
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
       <c r="C36" t="n">
         <v>2014</v>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E36" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37"/>
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38"/>
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
       <c r="C38" t="n">
         <v>2014</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39"/>
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
       <c r="C39" t="n">
         <v>2014</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E39" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40"/>
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
       <c r="C40" t="n">
         <v>2014</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41"/>
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42"/>
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
       <c r="C42" t="n">
         <v>2014</v>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43"/>
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
       <c r="C43" t="n">
         <v>2014</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E43" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44"/>
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
       <c r="C44" t="n">
         <v>2014</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E44" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45"/>
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46"/>
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
       <c r="C46" t="n">
         <v>2014</v>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47"/>
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
       <c r="C47" t="n">
         <v>2014</v>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E47" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48"/>
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
       <c r="C48" t="n">
         <v>2014</v>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E48" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49"/>
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E49" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50"/>
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
       <c r="C50" t="n">
         <v>2014</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E50" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51"/>
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
       <c r="C51" t="n">
         <v>2014</v>
       </c>
@@ -1585,39 +2021,45 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52"/>
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
       <c r="C52" t="n">
         <v>2014</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E52" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53"/>
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E53" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54"/>
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
       <c r="C54" t="n">
         <v>2014</v>
       </c>
@@ -1630,819 +2072,929 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55"/>
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
       <c r="C55" t="n">
         <v>2014</v>
       </c>
       <c r="D55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56"/>
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
       <c r="C56" t="n">
         <v>2014</v>
       </c>
       <c r="D56" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E56" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57"/>
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58"/>
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
       <c r="C58" t="n">
         <v>2014</v>
       </c>
       <c r="D58" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E58" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59"/>
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
       <c r="C59" t="n">
         <v>2014</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E59" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60"/>
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
       <c r="C60" t="n">
         <v>2014</v>
       </c>
       <c r="D60" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E60" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61"/>
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62"/>
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
       <c r="C62" t="n">
         <v>2014</v>
       </c>
       <c r="D62" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E62" t="n">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63"/>
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
       <c r="C63" t="n">
         <v>2014</v>
       </c>
       <c r="D63" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64"/>
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
       <c r="C64" t="n">
         <v>2014</v>
       </c>
       <c r="D64" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E64" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65"/>
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66"/>
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
       <c r="C66" t="n">
         <v>2014</v>
       </c>
       <c r="D66" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67"/>
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
       <c r="C67" t="n">
         <v>2014</v>
       </c>
       <c r="D67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E67" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68"/>
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
       <c r="C68" t="n">
         <v>2014</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E68" t="n">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69"/>
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70"/>
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
       <c r="C70" t="n">
         <v>2014</v>
       </c>
       <c r="D70" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E70" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71"/>
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
       <c r="C71" t="n">
         <v>2014</v>
       </c>
       <c r="D71" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E71" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72"/>
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
       <c r="C72" t="n">
         <v>2014</v>
       </c>
       <c r="D72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73"/>
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74"/>
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
       <c r="C74" t="n">
         <v>2014</v>
       </c>
       <c r="D74" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75"/>
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
       <c r="C75" t="n">
         <v>2014</v>
       </c>
       <c r="D75" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E75" t="n">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76"/>
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
       <c r="C76" t="n">
         <v>2014</v>
       </c>
       <c r="D76" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E76" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77"/>
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78"/>
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
       <c r="C78" t="n">
         <v>2014</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E78" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79"/>
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
       <c r="C79" t="n">
         <v>2014</v>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E79" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80"/>
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
       <c r="C80" t="n">
         <v>2014</v>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81"/>
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E81" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82"/>
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
       <c r="C82" t="n">
         <v>2014</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E82" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83"/>
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
       <c r="C83" t="n">
         <v>2014</v>
       </c>
       <c r="D83" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84"/>
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
       <c r="C84" t="n">
         <v>2014</v>
       </c>
       <c r="D84" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E84" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85"/>
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
       <c r="D85" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86"/>
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
       <c r="C86" t="n">
         <v>2014</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E86" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87"/>
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
       <c r="C87" t="n">
         <v>2014</v>
       </c>
       <c r="D87" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88"/>
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
       <c r="C88" t="n">
         <v>2014</v>
       </c>
       <c r="D88" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E88" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89"/>
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
       <c r="D89" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E89" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D90" t="n">
+        <v>7</v>
+      </c>
+      <c r="E90" t="n">
         <v>93</v>
-      </c>
-      <c r="B90"/>
-      <c r="C90" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D90" t="n">
-        <v>19</v>
-      </c>
-      <c r="E90" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91"/>
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
       <c r="C91" t="n">
         <v>2014</v>
       </c>
       <c r="D91" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92"/>
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
       <c r="C92" t="n">
         <v>2014</v>
       </c>
       <c r="D92" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E92" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93"/>
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E93" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94"/>
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
       <c r="C94" t="n">
         <v>2014</v>
       </c>
       <c r="D94" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E94" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95"/>
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
       <c r="C95" t="n">
         <v>2014</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E95" t="n">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96"/>
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
       <c r="C96" t="n">
         <v>2014</v>
       </c>
       <c r="D96" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97"/>
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E97" t="n">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98"/>
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
       <c r="C98" t="n">
         <v>2014</v>
       </c>
       <c r="D98" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E98" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99"/>
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
       <c r="C99" t="n">
         <v>2014</v>
       </c>
       <c r="D99" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100"/>
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
       <c r="C100" t="n">
         <v>2014</v>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101"/>
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
       <c r="D101" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E101" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102"/>
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
       <c r="C102" t="n">
         <v>2014</v>
       </c>
       <c r="D102" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103"/>
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
       <c r="C103" t="n">
         <v>2014</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E103" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104"/>
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
       <c r="C104" t="n">
         <v>2014</v>
       </c>
       <c r="D104" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E104" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105"/>
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E105" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106"/>
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
       <c r="C106" t="n">
         <v>2014</v>
       </c>
       <c r="D106" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E106" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107"/>
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
       <c r="C107" t="n">
         <v>2014</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E107" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108"/>
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
       <c r="C108" t="n">
         <v>2014</v>
       </c>
       <c r="D108" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E108" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109"/>
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
@@ -2455,62 +3007,70 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110"/>
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
       <c r="C110" t="n">
         <v>2014</v>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E110" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111"/>
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
       <c r="C111" t="n">
         <v>2014</v>
       </c>
       <c r="D111" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E111" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112"/>
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
       <c r="C112" t="n">
         <v>2014</v>
       </c>
       <c r="D112" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113"/>
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
       <c r="C113" t="n">
         <v>2014</v>
       </c>
       <c r="D113" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E113" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
